--- a/Planilha de Presença 2025.1.xlsx
+++ b/Planilha de Presença 2025.1.xlsx
@@ -3,21 +3,31 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Presença" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Atenção" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Guia" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Presença - Reuniões Semanais" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Presença - Outros Eventos" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Auxiliar de Datas - Outros Even" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Atenção" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Guia" sheetId="5" r:id="rId8"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Presença - Outros Eventos'!$A$1:$K$23</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="138">
   <si>
     <t>Membros Ativos 2025.1</t>
   </si>
   <si>
+    <t>Classificação</t>
+  </si>
+  <si>
+    <t>Personas</t>
+  </si>
+  <si>
     <t>Gênero</t>
   </si>
   <si>
@@ -102,6 +112,12 @@
     <t>Henrique Nogueira Pedro Lindoso</t>
   </si>
   <si>
+    <t>Gestão</t>
+  </si>
+  <si>
+    <t>Avançado</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
@@ -138,6 +154,9 @@
     <t>Felippe Gomes Bertollo</t>
   </si>
   <si>
+    <t>Veterano</t>
+  </si>
+  <si>
     <t>GOV</t>
   </si>
   <si>
@@ -147,6 +166,9 @@
     <t>Gabriel De Sousa Braz</t>
   </si>
   <si>
+    <t>Intermediário</t>
+  </si>
+  <si>
     <t>GESTÃO</t>
   </si>
   <si>
@@ -297,6 +319,9 @@
     <t>Eduarda Sabino de Morais</t>
   </si>
   <si>
+    <t>Bixo</t>
+  </si>
+  <si>
     <t>Curso de Python 2024</t>
   </si>
   <si>
@@ -349,6 +374,21 @@
   </si>
   <si>
     <t>pedrinhopumar@usp.br</t>
+  </si>
+  <si>
+    <t>08/03</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Evento</t>
+  </si>
+  <si>
+    <t>Monitoria da Semana de Capacitação</t>
+  </si>
+  <si>
+    <t>RG de Tecnologia com todos os membros ativos</t>
   </si>
   <si>
     <t>Acompanhamento</t>
@@ -397,8 +437,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -577,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -611,6 +652,15 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -673,6 +723,14 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -912,12 +970,14 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.0"/>
-    <col customWidth="1" min="2" max="2" width="9.0"/>
-    <col customWidth="1" min="3" max="3" width="20.88"/>
-    <col customWidth="1" hidden="1" min="4" max="4" width="22.5"/>
-    <col customWidth="1" hidden="1" min="5" max="5" width="26.88"/>
-    <col customWidth="1" min="32" max="32" width="17.25"/>
+    <col customWidth="1" min="1" max="1" width="32.5"/>
+    <col customWidth="1" min="2" max="2" width="17.63"/>
+    <col customWidth="1" min="3" max="3" width="24.88"/>
+    <col customWidth="1" min="4" max="4" width="9.0"/>
+    <col customWidth="1" min="5" max="5" width="20.88"/>
+    <col customWidth="1" hidden="1" min="6" max="6" width="22.5"/>
+    <col customWidth="1" hidden="1" min="7" max="7" width="26.88"/>
+    <col customWidth="1" min="34" max="34" width="17.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.75" customHeight="1">
@@ -933,13 +993,13 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -999,59 +1059,69 @@
       <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3">
-        <f t="shared" ref="AA1:AE1" si="1">Z1+7</f>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="3">
+        <f t="shared" ref="AC1:AG1" si="1">AB1+7</f>
         <v>45837</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AD1" s="3">
         <f t="shared" si="1"/>
         <v>45844</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AE1" s="3">
         <f t="shared" si="1"/>
         <v>45851</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AF1" s="3">
         <f t="shared" si="1"/>
         <v>45858</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AG1" s="3">
         <f t="shared" si="1"/>
         <v>45865</v>
       </c>
-      <c r="AF1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
+      <c r="AH1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -1060,8 +1130,8 @@
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
@@ -1070,54 +1140,60 @@
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
       <c r="AE2" s="6"/>
-      <c r="AF2" s="7">
-        <f t="shared" ref="AF2:AF36" si="2">COUNTIF(F2:AE2,"P")-0.5*COUNTIF(F2:AE2,"F")</f>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="7">
+        <f t="shared" ref="AH2:AH36" si="2">COUNTIF(H2:AG2,"P")-0.5*COUNTIF(H2:AG2,"F")</f>
         <v>0</v>
       </c>
-      <c r="AG2" s="8" t="str">
-        <f t="shared" ref="AG2:AG36" si="3">AF2/SUM(COUNTIF(F2:AE2,"P"),COUNTIF(F2:AE2,"FJ"),COUNTIF(F2:AE2,"F"))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
+      <c r="AI2" s="8">
+        <f t="shared" ref="AI2:AI36" si="3">IFERROR(AH2/SUM(COUNTIF(H2:AG2,"P"),COUNTIF(H2:AG2,"FJ"),COUNTIF(H2:AG2,"F")),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>38</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="11"/>
       <c r="I3" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -1135,41 +1211,47 @@
       <c r="AC3" s="11"/>
       <c r="AD3" s="11"/>
       <c r="AE3" s="11"/>
-      <c r="AF3" s="11">
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="AG3" s="12">
+      <c r="AI3" s="12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
@@ -1178,8 +1260,8 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
@@ -1188,35 +1270,41 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="7">
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG4" s="8" t="str">
+      <c r="AI4" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -1241,41 +1329,47 @@
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
-      <c r="AF5" s="11">
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG5" s="12" t="str">
+      <c r="AI5" s="12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -1284,8 +1378,8 @@
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
@@ -1294,54 +1388,60 @@
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="6"/>
-      <c r="AF6" s="7">
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="8" t="str">
+      <c r="AI6" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="E7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="11"/>
       <c r="I7" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -1359,41 +1459,47 @@
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
-      <c r="AF7" s="11">
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="AG7" s="12">
+      <c r="AI7" s="12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -1402,8 +1508,8 @@
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
@@ -1412,54 +1518,60 @@
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
       <c r="AE8" s="6"/>
-      <c r="AF8" s="7">
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="8" t="str">
+      <c r="AI8" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>38</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="11"/>
       <c r="I9" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -1477,41 +1589,47 @@
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
       <c r="AE9" s="11"/>
-      <c r="AF9" s="11">
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AG9" s="12">
+      <c r="AI9" s="12">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="7" t="s">
         <v>49</v>
       </c>
+      <c r="D10" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="E10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -1520,8 +1638,8 @@
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
@@ -1530,35 +1648,41 @@
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
       <c r="AE10" s="6"/>
-      <c r="AF10" s="7">
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG10" s="8" t="str">
+      <c r="AI10" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="D11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -1583,54 +1707,60 @@
       <c r="AC11" s="11"/>
       <c r="AD11" s="11"/>
       <c r="AE11" s="11"/>
-      <c r="AF11" s="11">
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="12" t="str">
+      <c r="AI11" s="12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -1638,8 +1768,8 @@
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
@@ -1648,41 +1778,47 @@
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="6"/>
-      <c r="AF12" s="7">
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AG12" s="8">
+      <c r="AI12" s="8">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="D13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="K13" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -1703,49 +1839,55 @@
       <c r="AC13" s="11"/>
       <c r="AD13" s="11"/>
       <c r="AE13" s="11"/>
-      <c r="AF13" s="11">
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AG13" s="12">
+      <c r="AI13" s="12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="G14" s="6" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -1754,8 +1896,8 @@
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
@@ -1764,35 +1906,41 @@
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="6"/>
-      <c r="AF14" s="7">
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AG14" s="8">
+      <c r="AI14" s="8">
         <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -1817,41 +1965,47 @@
       <c r="AC15" s="11"/>
       <c r="AD15" s="11"/>
       <c r="AE15" s="11"/>
-      <c r="AF15" s="11">
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="12" t="str">
+      <c r="AI15" s="12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>29</v>
+        <v>75</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -1860,8 +2014,8 @@
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
@@ -1870,45 +2024,51 @@
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
       <c r="AE16" s="6"/>
-      <c r="AF16" s="7">
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG16" s="8" t="str">
+      <c r="AI16" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="F17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="11"/>
       <c r="I17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -1929,47 +2089,53 @@
       <c r="AC17" s="11"/>
       <c r="AD17" s="11"/>
       <c r="AE17" s="11"/>
-      <c r="AF17" s="11">
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AG17" s="12">
+      <c r="AI17" s="12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>38</v>
+      <c r="E18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -1990,54 +2156,60 @@
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="11"/>
-      <c r="AF18" s="11">
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AG18" s="12">
+      <c r="AI18" s="12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="G19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>39</v>
+        <v>82</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -2045,8 +2217,8 @@
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
@@ -2055,35 +2227,41 @@
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
       <c r="AE19" s="6"/>
-      <c r="AF19" s="7">
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AG19" s="8">
+      <c r="AI19" s="8">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="D20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -2108,54 +2286,60 @@
       <c r="AC20" s="11"/>
       <c r="AD20" s="11"/>
       <c r="AE20" s="11"/>
-      <c r="AF20" s="11">
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG20" s="12" t="str">
+      <c r="AI20" s="12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="G21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" s="6" t="s">
+      <c r="M21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -2163,8 +2347,8 @@
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
@@ -2173,41 +2357,47 @@
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="6"/>
-      <c r="AF21" s="7">
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AG21" s="8">
+      <c r="AI21" s="8">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="7" t="s">
         <v>49</v>
       </c>
+      <c r="D22" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="E22" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -2216,8 +2406,8 @@
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
@@ -2226,54 +2416,60 @@
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
       <c r="AE22" s="6"/>
-      <c r="AF22" s="7">
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG22" s="8" t="str">
+      <c r="AI22" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="10" t="s">
+      <c r="D23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="F23" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
+      <c r="N23" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
@@ -2291,41 +2487,47 @@
       <c r="AC23" s="11"/>
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
-      <c r="AF23" s="11">
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="AG23" s="12">
+      <c r="AI23" s="12">
         <f t="shared" si="3"/>
         <v>0.625</v>
       </c>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -2334,8 +2536,8 @@
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
@@ -2344,49 +2546,55 @@
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
       <c r="AE24" s="6"/>
-      <c r="AF24" s="7">
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG24" s="8" t="str">
+      <c r="AI24" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="D25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -2395,8 +2603,8 @@
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
@@ -2405,47 +2613,53 @@
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="6"/>
-      <c r="AF25" s="7">
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AG25" s="8">
+      <c r="AI25" s="8">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="D26" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="E26" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="I26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
+      <c r="K26" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -2466,54 +2680,60 @@
       <c r="AC26" s="11"/>
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
-      <c r="AF26" s="11">
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AG26" s="12">
+      <c r="AI26" s="12">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
-      <c r="AH26" s="11"/>
-      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="G27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>39</v>
+        <v>98</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+      <c r="M27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
@@ -2521,8 +2741,8 @@
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
@@ -2531,54 +2751,60 @@
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
       <c r="AE27" s="6"/>
-      <c r="AF27" s="7">
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AG27" s="8">
+      <c r="AI27" s="8">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="E28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="11"/>
       <c r="I28" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
@@ -2596,41 +2822,47 @@
       <c r="AC28" s="11"/>
       <c r="AD28" s="11"/>
       <c r="AE28" s="11"/>
-      <c r="AF28" s="11">
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="AG28" s="12">
+      <c r="AI28" s="12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AH28" s="11"/>
-      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>94</v>
+        <v>49</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
@@ -2639,8 +2871,8 @@
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
@@ -2649,35 +2881,41 @@
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
       <c r="AE29" s="6"/>
-      <c r="AF29" s="7">
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG29" s="8" t="str">
+      <c r="AI29" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH29" s="7"/>
-      <c r="AI29" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="F30" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
@@ -2702,41 +2940,47 @@
       <c r="AC30" s="11"/>
       <c r="AD30" s="11"/>
       <c r="AE30" s="11"/>
-      <c r="AF30" s="11">
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG30" s="12" t="str">
+      <c r="AI30" s="12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH30" s="11"/>
-      <c r="AI30" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="C31" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>94</v>
+        <v>49</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="E31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="G31" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
@@ -2745,8 +2989,8 @@
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
@@ -2755,54 +2999,60 @@
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
       <c r="AE31" s="6"/>
-      <c r="AF31" s="7">
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG31" s="8" t="str">
+      <c r="AI31" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="F32" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" s="11"/>
       <c r="I32" s="10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
@@ -2820,47 +3070,53 @@
       <c r="AC32" s="11"/>
       <c r="AD32" s="11"/>
       <c r="AE32" s="11"/>
-      <c r="AF32" s="11">
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AG32" s="12">
+      <c r="AI32" s="12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AH32" s="11"/>
-      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="11"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>94</v>
+        <v>49</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="G33" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>38</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="H33" s="6"/>
       <c r="I33" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
@@ -2869,8 +3125,8 @@
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
@@ -2879,35 +3135,41 @@
       <c r="AC33" s="6"/>
       <c r="AD33" s="6"/>
       <c r="AE33" s="6"/>
-      <c r="AF33" s="7">
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AG33" s="8">
+      <c r="AI33" s="8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AH33" s="7"/>
-      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+        <v>100</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
@@ -2932,41 +3194,47 @@
       <c r="AC34" s="11"/>
       <c r="AD34" s="11"/>
       <c r="AE34" s="11"/>
-      <c r="AF34" s="11">
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG34" s="12" t="str">
+      <c r="AI34" s="12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH34" s="11"/>
-      <c r="AI34" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="11"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>94</v>
+        <v>49</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
@@ -2975,8 +3243,8 @@
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
@@ -2985,45 +3253,51 @@
       <c r="AC35" s="6"/>
       <c r="AD35" s="6"/>
       <c r="AE35" s="6"/>
-      <c r="AF35" s="7">
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG35" s="8" t="str">
+      <c r="AI35" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH35" s="7"/>
-      <c r="AI35" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="7"/>
+      <c r="AK35" s="7"/>
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>38</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="11"/>
       <c r="I36" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
@@ -3044,16 +3318,18 @@
       <c r="AC36" s="11"/>
       <c r="AD36" s="11"/>
       <c r="AE36" s="11"/>
-      <c r="AF36" s="11">
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AG36" s="12">
+      <c r="AI36" s="12">
         <f t="shared" si="3"/>
         <v>0.6666666667</v>
       </c>
-      <c r="AH36" s="11"/>
-      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="11"/>
     </row>
     <row r="37">
       <c r="A37" s="13"/>
@@ -5934,16 +6210,22 @@
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C36">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E36">
       <formula1>"MKT,GESTÃO,RH,GOV,OPER"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:AE36">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:AG36">
       <formula1>Guia!$C$6:$C$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D36">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C36">
+      <formula1>"Iniciante,Intermediário,Avançado"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B36">
+      <formula1>"Bixo,Veterano,Gestão"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F36">
       <formula1>"PS 2023,Curso de Python 2023,PS 2024,Curso de Python 2024"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B36">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D36">
       <formula1>"F,M"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5960,49 +6242,3817 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="32.5"/>
+    <col customWidth="1" min="2" max="2" width="17.63"/>
+    <col customWidth="1" min="3" max="3" width="24.88"/>
+    <col customWidth="1" min="4" max="4" width="9.0"/>
+    <col customWidth="1" min="5" max="5" width="20.88"/>
+    <col customWidth="1" hidden="1" min="6" max="6" width="22.5"/>
+    <col customWidth="1" hidden="1" min="7" max="7" width="26.88"/>
+    <col customWidth="1" min="8" max="8" width="19.13"/>
+    <col customWidth="1" min="9" max="9" width="26.25"/>
+    <col customWidth="1" min="10" max="10" width="17.25"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="24.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
     <row r="2">
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="11">
+        <f t="shared" ref="J2:J23" si="1">COUNTIF(H2:I2,"P")-0.5*COUNTIF(H2:I2,"F")</f>
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="12">
+        <f t="shared" ref="K2:K23" si="2">IFERROR(J2/SUM(COUNTIF(H2:I2,"P"),COUNTIF(H2:I2,"FJ"),COUNTIF(H2:I2,"F")),0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="K3" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="11">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="K4" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K8" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K11" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.25</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER('Presença'!$A$2:$A$36,'Presença'!$AG$2:$AG$36&lt;70%)"),"Anna Yoshi Une Mesquita")</f>
-        <v>Anna Yoshi Une Mesquita</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Jessica Sayuri Goya Higa")</f>
-        <v>Jessica Sayuri Goya Higa</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Emmanuelita Stephene Emmanuel")</f>
-        <v>Emmanuelita Stephene Emmanuel</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Caio Huang")</f>
-        <v>Caio Huang</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Felipe Hideki Komi ")</f>
-        <v>Felipe Hideki Komi </v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pedro Enrico Pumar de Brito")</f>
-        <v>Pedro Enrico Pumar de Brito</v>
-      </c>
+      <c r="H15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K17" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K18" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K19" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="12">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="K23" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="13"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="13"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="13"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="13"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="13"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="13"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="13"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="13"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="13"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="13"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="13"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="13"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="13"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="13"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="13"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="13"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="13"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="13"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="13"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="13"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="13"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="13"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="13"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="13"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="13"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="13"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="13"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="13"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="13"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="13"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="13"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="13"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="13"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="13"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="13"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="13"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="13"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="13"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="13"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="13"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="13"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="13"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="13"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="13"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="13"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="13"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="13"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="13"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="13"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="13"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="13"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="13"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="13"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="13"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="13"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="13"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="13"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="13"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="13"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="13"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="13"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="13"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="13"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="13"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="13"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="13"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="13"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="13"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="13"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="13"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="13"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="13"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="13"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="13"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="13"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="13"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="13"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="13"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="13"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="13"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="13"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="13"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="13"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="13"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="13"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="13"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="13"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="13"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="13"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="13"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="13"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="13"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="13"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="13"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="13"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="13"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="13"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="13"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="13"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="13"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="13"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="13"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="13"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="13"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="13"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="13"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="13"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="13"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="13"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="13"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="13"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="13"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="13"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="13"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="13"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="13"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="13"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="13"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="13"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="13"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="13"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="13"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="13"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="13"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="13"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="13"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="13"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="13"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="13"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="13"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="13"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="13"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="13"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="13"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="13"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="13"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="13"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="13"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="13"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="13"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="13"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="13"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="13"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="13"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="13"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="13"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="13"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="13"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="13"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="13"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="13"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="13"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="13"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="13"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="13"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="13"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="13"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="13"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="13"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="13"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="13"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="13"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="13"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="13"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="13"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="13"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="13"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="13"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="13"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="13"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="13"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="13"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="13"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="13"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="13"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="13"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="13"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="13"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="13"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="13"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="13"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="13"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="13"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="13"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="13"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="13"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="13"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="13"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="13"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="13"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="13"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="13"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="13"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="13"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="13"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="13"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="13"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="13"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="13"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="13"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="13"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="13"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="13"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="13"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="13"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="13"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="13"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="13"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="13"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="13"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="13"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="13"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="13"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="13"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="13"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="13"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="13"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="13"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="13"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="13"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="13"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="13"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="13"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="13"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="13"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="13"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="13"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="13"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="13"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="13"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="13"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="13"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="13"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="13"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="13"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="13"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="13"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="13"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="13"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="13"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="13"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="13"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="13"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="13"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="13"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="13"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="13"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="13"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="13"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="13"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="13"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="13"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="13"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="13"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="13"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="13"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="13"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="13"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="13"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="13"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="13"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="13"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="13"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="13"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="13"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="13"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="13"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="13"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="13"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="13"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="13"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="13"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="13"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="13"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="13"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="13"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="13"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="13"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="13"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="13"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="13"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="13"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="13"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="13"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="13"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="13"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="13"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="13"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="13"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="13"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="13"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="13"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="13"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="13"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="13"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="13"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="13"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="13"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="13"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="13"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="13"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="13"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="13"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="13"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="13"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="13"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="13"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="13"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="13"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="13"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="13"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="13"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="13"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="13"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="13"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="13"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="13"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="13"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="13"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="13"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="13"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="13"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="13"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="13"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="13"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="13"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="13"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="13"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="13"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="13"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="13"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="13"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="13"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="13"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="13"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="13"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="13"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="13"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="13"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="13"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="13"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="13"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="13"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="13"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="13"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="13"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="13"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="13"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="13"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="13"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="13"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="13"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="13"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="13"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="13"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="13"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="13"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="13"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="13"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="13"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="13"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="13"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="13"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="13"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="13"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="13"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="13"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="13"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="13"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="13"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="13"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="13"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="13"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="13"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="13"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="13"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="13"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="13"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="13"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="13"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="13"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="13"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="13"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="13"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="13"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="13"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="13"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="13"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="13"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="13"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="13"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="13"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="13"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="13"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="13"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="13"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="13"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="13"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="13"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="13"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="13"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="13"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="13"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="13"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="13"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="13"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="13"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="13"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="13"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="13"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="13"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="13"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="13"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="13"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="13"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="13"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="13"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="13"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="13"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="13"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="13"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="13"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="13"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="13"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="13"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="13"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="13"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="13"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="13"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="13"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="13"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="13"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="13"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="13"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="13"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="13"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="13"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="13"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="13"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="13"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="13"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="13"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="13"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="13"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="13"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="13"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="13"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="13"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="13"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="13"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="13"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="13"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="13"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="13"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="13"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="13"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="13"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="13"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="13"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="13"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="13"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="13"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="13"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="13"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="13"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="13"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="13"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="13"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="13"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="13"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="13"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="13"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="13"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="13"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="13"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="13"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="13"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="13"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="13"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="13"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="13"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="13"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="13"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="13"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="13"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="13"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="13"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="13"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="13"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="13"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="13"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="13"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="13"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="13"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="13"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="13"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="13"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="13"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="13"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="13"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="13"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="13"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="13"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="13"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="13"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="13"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="13"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="13"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="13"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="13"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="13"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="13"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="13"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="13"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="13"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="13"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="13"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="13"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="13"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="13"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="13"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="13"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="13"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="13"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="13"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="13"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="13"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="13"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="13"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="13"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="13"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="13"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="13"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="13"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="13"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="13"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="13"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="13"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="13"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="13"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="13"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="13"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="13"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="13"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="13"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="13"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="13"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="13"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="13"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="13"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="13"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="13"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="13"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="13"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="13"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="13"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="13"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="13"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="13"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="13"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="13"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="13"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="13"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="13"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="13"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="13"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="13"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="13"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="13"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="13"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="13"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="13"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="13"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="13"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="13"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="13"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="13"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="13"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="13"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="13"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="13"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="13"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="13"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="13"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="13"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="13"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="13"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="13"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="13"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="13"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="13"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="13"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="13"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="13"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="13"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="13"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="13"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="13"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="13"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="13"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="13"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="13"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="13"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="13"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="13"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="13"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="13"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="13"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="13"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="13"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="13"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="13"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="13"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="13"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="13"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="13"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="13"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="13"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="13"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="13"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="13"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="13"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="13"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="13"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="13"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="13"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="13"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="13"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="13"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="13"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="13"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="13"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="13"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="13"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="13"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="13"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="13"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="13"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="13"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="13"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="13"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="13"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="13"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="13"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="13"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="13"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="13"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="13"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="13"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="13"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="13"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="13"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="13"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="13"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="13"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="13"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="13"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="13"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="13"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="13"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="13"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="13"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="13"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="13"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="13"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="13"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="13"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="13"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="13"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="13"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="13"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="13"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="13"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="13"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="13"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="13"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="13"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="13"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="13"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="13"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="13"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="13"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="13"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="13"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="13"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="13"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="13"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="13"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="13"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="13"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="13"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="13"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="13"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="13"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="13"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="13"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="13"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="13"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="13"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="13"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="13"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="13"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="13"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="13"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="13"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="13"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="13"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="13"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="13"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="13"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="13"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="13"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="13"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="13"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="13"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="13"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="13"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="13"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="13"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="13"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="13"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="13"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="13"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="13"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="13"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="13"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="13"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="13"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="13"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="13"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="13"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="13"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="13"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="13"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="13"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="13"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="13"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="13"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="13"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="13"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="13"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="13"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="13"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="13"/>
+    </row>
+    <row r="769">
+      <c r="A769" s="13"/>
+    </row>
+    <row r="770">
+      <c r="A770" s="13"/>
+    </row>
+    <row r="771">
+      <c r="A771" s="13"/>
+    </row>
+    <row r="772">
+      <c r="A772" s="13"/>
+    </row>
+    <row r="773">
+      <c r="A773" s="13"/>
+    </row>
+    <row r="774">
+      <c r="A774" s="13"/>
+    </row>
+    <row r="775">
+      <c r="A775" s="13"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="13"/>
+    </row>
+    <row r="777">
+      <c r="A777" s="13"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="13"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="13"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="13"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="13"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="13"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="13"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="13"/>
+    </row>
+    <row r="785">
+      <c r="A785" s="13"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="13"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="13"/>
+    </row>
+    <row r="788">
+      <c r="A788" s="13"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="13"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="13"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="13"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="13"/>
+    </row>
+    <row r="793">
+      <c r="A793" s="13"/>
+    </row>
+    <row r="794">
+      <c r="A794" s="13"/>
+    </row>
+    <row r="795">
+      <c r="A795" s="13"/>
+    </row>
+    <row r="796">
+      <c r="A796" s="13"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="13"/>
+    </row>
+    <row r="798">
+      <c r="A798" s="13"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="13"/>
+    </row>
+    <row r="800">
+      <c r="A800" s="13"/>
+    </row>
+    <row r="801">
+      <c r="A801" s="13"/>
+    </row>
+    <row r="802">
+      <c r="A802" s="13"/>
+    </row>
+    <row r="803">
+      <c r="A803" s="13"/>
+    </row>
+    <row r="804">
+      <c r="A804" s="13"/>
+    </row>
+    <row r="805">
+      <c r="A805" s="13"/>
+    </row>
+    <row r="806">
+      <c r="A806" s="13"/>
+    </row>
+    <row r="807">
+      <c r="A807" s="13"/>
+    </row>
+    <row r="808">
+      <c r="A808" s="13"/>
+    </row>
+    <row r="809">
+      <c r="A809" s="13"/>
+    </row>
+    <row r="810">
+      <c r="A810" s="13"/>
+    </row>
+    <row r="811">
+      <c r="A811" s="13"/>
+    </row>
+    <row r="812">
+      <c r="A812" s="13"/>
+    </row>
+    <row r="813">
+      <c r="A813" s="13"/>
+    </row>
+    <row r="814">
+      <c r="A814" s="13"/>
+    </row>
+    <row r="815">
+      <c r="A815" s="13"/>
+    </row>
+    <row r="816">
+      <c r="A816" s="13"/>
+    </row>
+    <row r="817">
+      <c r="A817" s="13"/>
+    </row>
+    <row r="818">
+      <c r="A818" s="13"/>
+    </row>
+    <row r="819">
+      <c r="A819" s="13"/>
+    </row>
+    <row r="820">
+      <c r="A820" s="13"/>
+    </row>
+    <row r="821">
+      <c r="A821" s="13"/>
+    </row>
+    <row r="822">
+      <c r="A822" s="13"/>
+    </row>
+    <row r="823">
+      <c r="A823" s="13"/>
+    </row>
+    <row r="824">
+      <c r="A824" s="13"/>
+    </row>
+    <row r="825">
+      <c r="A825" s="13"/>
+    </row>
+    <row r="826">
+      <c r="A826" s="13"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="13"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="13"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="13"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="13"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="13"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="13"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="13"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="13"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="13"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="13"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="13"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="13"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="13"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="13"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="13"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="13"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="13"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="13"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="13"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="13"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="13"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="13"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="13"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="13"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="13"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="13"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="13"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="13"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="13"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="13"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="13"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="13"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="13"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="13"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="13"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="13"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="13"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="13"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="13"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="13"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="13"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="13"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="13"/>
+    </row>
+    <row r="870">
+      <c r="A870" s="13"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="13"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="13"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="13"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="13"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="13"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="13"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="13"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="13"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="13"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="13"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="13"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="13"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="13"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="13"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="13"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="13"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="13"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="13"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="13"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="13"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="13"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="13"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="13"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="13"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="13"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="13"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="13"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="13"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="13"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="13"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="13"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="13"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="13"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="13"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="13"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="13"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="13"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="13"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="13"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="13"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="13"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="13"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="13"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="13"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="13"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="13"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="13"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="13"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="13"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="13"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="13"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="13"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="13"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="13"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="13"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="13"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="13"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="13"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="13"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="13"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="13"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="13"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="13"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="13"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="13"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="13"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="13"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="13"/>
+    </row>
+    <row r="939">
+      <c r="A939" s="13"/>
+    </row>
+    <row r="940">
+      <c r="A940" s="13"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="13"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="13"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="13"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="13"/>
+    </row>
+    <row r="945">
+      <c r="A945" s="13"/>
+    </row>
+    <row r="946">
+      <c r="A946" s="13"/>
+    </row>
+    <row r="947">
+      <c r="A947" s="13"/>
+    </row>
+    <row r="948">
+      <c r="A948" s="13"/>
+    </row>
+    <row r="949">
+      <c r="A949" s="13"/>
+    </row>
+    <row r="950">
+      <c r="A950" s="13"/>
+    </row>
+    <row r="951">
+      <c r="A951" s="13"/>
+    </row>
+    <row r="952">
+      <c r="A952" s="13"/>
+    </row>
+    <row r="953">
+      <c r="A953" s="13"/>
+    </row>
+    <row r="954">
+      <c r="A954" s="13"/>
+    </row>
+    <row r="955">
+      <c r="A955" s="13"/>
+    </row>
+    <row r="956">
+      <c r="A956" s="13"/>
+    </row>
+    <row r="957">
+      <c r="A957" s="13"/>
+    </row>
+    <row r="958">
+      <c r="A958" s="13"/>
+    </row>
+    <row r="959">
+      <c r="A959" s="13"/>
+    </row>
+    <row r="960">
+      <c r="A960" s="13"/>
+    </row>
+    <row r="961">
+      <c r="A961" s="13"/>
+    </row>
+    <row r="962">
+      <c r="A962" s="13"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="13"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="13"/>
+    </row>
+    <row r="965">
+      <c r="A965" s="13"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="13"/>
+    </row>
+    <row r="967">
+      <c r="A967" s="13"/>
+    </row>
+    <row r="968">
+      <c r="A968" s="13"/>
+    </row>
+    <row r="969">
+      <c r="A969" s="13"/>
+    </row>
+    <row r="970">
+      <c r="A970" s="13"/>
+    </row>
+    <row r="971">
+      <c r="A971" s="13"/>
+    </row>
+    <row r="972">
+      <c r="A972" s="13"/>
+    </row>
+    <row r="973">
+      <c r="A973" s="13"/>
+    </row>
+    <row r="974">
+      <c r="A974" s="13"/>
+    </row>
+    <row r="975">
+      <c r="A975" s="13"/>
+    </row>
+    <row r="976">
+      <c r="A976" s="13"/>
+    </row>
+    <row r="977">
+      <c r="A977" s="13"/>
+    </row>
+    <row r="978">
+      <c r="A978" s="13"/>
+    </row>
+    <row r="979">
+      <c r="A979" s="13"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="13"/>
+    </row>
+    <row r="981">
+      <c r="A981" s="13"/>
+    </row>
+    <row r="982">
+      <c r="A982" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$K$23">
+    <sortState ref="A1:K23">
+      <sortCondition ref="A1:A23"/>
+    </sortState>
+  </autoFilter>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E23">
+      <formula1>"MKT,GESTÃO,RH,GOV,OPER"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:I23">
+      <formula1>Guia!$C$6:$C$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C23">
+      <formula1>"Iniciante,Intermediário,Avançado"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B23">
+      <formula1>"Bixo,Veterano,Gestão"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F23">
+      <formula1>"PS 2023,Curso de Python 2023,PS 2024,Curso de Python 2024"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D23">
+      <formula1>"F,M"</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -6016,308 +10066,506 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="16">
+        <v>45724.0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="16">
+        <v>45732.0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER('Presença - Reuniões Semanais'!$A$2:$A$36,'Presença - Reuniões Semanais'!$AI$2:$AI$36&lt;70%)"),"Henrique Nogueira Pedro Lindoso")</f>
+        <v>Henrique Nogueira Pedro Lindoso</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Felippe Gomes Bertollo")</f>
+        <v>Felippe Gomes Bertollo</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Gabriel De Sousa Braz")</f>
+        <v>Gabriel De Sousa Braz</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vitor Aratani Katayama")</f>
+        <v>Vitor Aratani Katayama</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Gabriel da Silva Navarro")</f>
+        <v>Gabriel da Silva Navarro</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Julia Cerqueira Vieira")</f>
+        <v>Julia Cerqueira Vieira</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Rafael Derrico dos Santos Abreu")</f>
+        <v>Rafael Derrico dos Santos Abreu</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Igor Pires Ferreira")</f>
+        <v>Igor Pires Ferreira</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Gabriel Finamore")</f>
+        <v>Gabriel Finamore</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"José Eduardo Santos Sarrico")</f>
+        <v>José Eduardo Santos Sarrico</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Anna Yoshi Une Mesquita")</f>
+        <v>Anna Yoshi Une Mesquita</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Marcos Felipe da Silva")</f>
+        <v>Marcos Felipe da Silva</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Jessica Sayuri Goya Higa")</f>
+        <v>Jessica Sayuri Goya Higa</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lorenzo Cavalcante")</f>
+        <v>Lorenzo Cavalcante</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Emmanuelita Stephene Emmanuel")</f>
+        <v>Emmanuelita Stephene Emmanuel</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Caio Huang")</f>
+        <v>Caio Huang</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Felipe Hideki Komi ")</f>
+        <v>Felipe Hideki Komi </v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Leonardo de Souza Teodoro")</f>
+        <v>Leonardo de Souza Teodoro</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Maisa Lumi Sonoda")</f>
+        <v>Maisa Lumi Sonoda</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Thales Vieira Rodrigues")</f>
+        <v>Thales Vieira Rodrigues</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Marcelo Fridschtein")</f>
+        <v>Marcelo Fridschtein</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Eduardo Ludgerio Barrado")</f>
+        <v>Eduardo Ludgerio Barrado</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pedro Enrico Pumar de Brito")</f>
+        <v>Pedro Enrico Pumar de Brito</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="16.63"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="16"/>
+      <c r="A1" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="19"/>
     </row>
     <row r="2">
-      <c r="J2" s="16"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3">
-      <c r="J3" s="16"/>
+      <c r="J3" s="19"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6">
-      <c r="A6" s="17"/>
-      <c r="B6" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="25" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="20"/>
+      <c r="B7" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="20"/>
+      <c r="B8" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="17"/>
-      <c r="B7" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="26">
+      <c r="D8" s="29">
+        <v>-0.5</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="20"/>
+      <c r="B9" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="29">
         <v>0.0</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="17"/>
-      <c r="B8" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="26">
-        <v>-0.5</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="17"/>
-      <c r="B9" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10">
-      <c r="A10" s="17"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12">
-      <c r="A12" s="17"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13">
-      <c r="A13" s="17"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14">
-      <c r="A14" s="17"/>
-      <c r="B14" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17">
-      <c r="A17" s="17"/>
-      <c r="B17" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18">
-      <c r="A18" s="17"/>
-      <c r="B18" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
     </row>
     <row r="23">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6328,6 +10576,11 @@
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
   </mergeCells>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L3">
+      <formula1>"Bixo,Veterano"</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>